--- a/exercise/reptile/data/reptile_verify.xlsx
+++ b/exercise/reptile/data/reptile_verify.xlsx
@@ -27006,17 +27006,17 @@
     <row r="1181">
       <c r="A1181" s="0" t="inlineStr">
         <is>
-          <t>202.102.86.228</t>
+          <t>27.159.164.37</t>
         </is>
       </c>
       <c r="B1181" s="0" t="inlineStr">
         <is>
-          <t>8080</t>
+          <t>8888</t>
         </is>
       </c>
       <c r="C1181" s="0" t="inlineStr">
         <is>
-          <t>中国  江苏  南京</t>
+          <t>中国  福建  宁德</t>
         </is>
       </c>
       <c r="D1181" s="0" t="inlineStr">
@@ -27028,17 +27028,17 @@
     <row r="1182">
       <c r="A1182" s="0" t="inlineStr">
         <is>
-          <t>60.185.203.142</t>
+          <t>118.117.189.227</t>
         </is>
       </c>
       <c r="B1182" s="0" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="C1182" s="0" t="inlineStr">
         <is>
-          <t>中国  浙江  舟山</t>
+          <t>中国  四川  达州</t>
         </is>
       </c>
       <c r="D1182" s="0" t="inlineStr">
@@ -27050,29 +27050,29 @@
     <row r="1183">
       <c r="A1183" s="0" t="inlineStr">
         <is>
-          <t>58.255.5.42</t>
+          <t>118.117.188.170</t>
         </is>
       </c>
       <c r="B1183" s="0" t="inlineStr">
         <is>
-          <t>9999</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="C1183" s="0" t="inlineStr">
         <is>
-          <t>中国  广东  惠州</t>
+          <t>中国  四川  达州</t>
         </is>
       </c>
       <c r="D1183" s="0" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>电信</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" s="0" t="inlineStr">
         <is>
-          <t>111.225.153.47</t>
+          <t>182.84.144.3</t>
         </is>
       </c>
       <c r="B1184" s="0" t="inlineStr">
@@ -27082,7 +27082,7 @@
       </c>
       <c r="C1184" s="0" t="inlineStr">
         <is>
-          <t>中国  河北  张家口</t>
+          <t>中国  江西  赣州</t>
         </is>
       </c>
       <c r="D1184" s="0" t="inlineStr">
@@ -27094,7 +27094,7 @@
     <row r="1185">
       <c r="A1185" s="0" t="inlineStr">
         <is>
-          <t>42.59.119.106</t>
+          <t>59.63.74.233</t>
         </is>
       </c>
       <c r="B1185" s="0" t="inlineStr">
@@ -27104,19 +27104,19 @@
       </c>
       <c r="C1185" s="0" t="inlineStr">
         <is>
-          <t>中国  辽宁  鞍山</t>
+          <t>中国  江西  景德镇</t>
         </is>
       </c>
       <c r="D1185" s="0" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>电信</t>
         </is>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" s="0" t="inlineStr">
         <is>
-          <t>111.225.153.251</t>
+          <t>182.84.144.71</t>
         </is>
       </c>
       <c r="B1186" s="0" t="inlineStr">
@@ -27126,7 +27126,7 @@
       </c>
       <c r="C1186" s="0" t="inlineStr">
         <is>
-          <t>中国  河北  张家口</t>
+          <t>中国  江西  赣州</t>
         </is>
       </c>
       <c r="D1186" s="0" t="inlineStr">
@@ -27138,7 +27138,7 @@
     <row r="1187">
       <c r="A1187" s="0" t="inlineStr">
         <is>
-          <t>114.98.114.170</t>
+          <t>106.45.105.186</t>
         </is>
       </c>
       <c r="B1187" s="0" t="inlineStr">
@@ -27148,7 +27148,7 @@
       </c>
       <c r="C1187" s="0" t="inlineStr">
         <is>
-          <t>中国  安徽  滁州</t>
+          <t>中国  宁夏  中卫</t>
         </is>
       </c>
       <c r="D1187" s="0" t="inlineStr">
@@ -27160,7 +27160,7 @@
     <row r="1188">
       <c r="A1188" s="0" t="inlineStr">
         <is>
-          <t>223.241.77.124</t>
+          <t>117.94.222.125</t>
         </is>
       </c>
       <c r="B1188" s="0" t="inlineStr">
@@ -27170,7 +27170,7 @@
       </c>
       <c r="C1188" s="0" t="inlineStr">
         <is>
-          <t>中国  安徽  芜湖</t>
+          <t>中国  江苏  泰州</t>
         </is>
       </c>
       <c r="D1188" s="0" t="inlineStr">
@@ -27182,17 +27182,17 @@
     <row r="1189">
       <c r="A1189" s="0" t="inlineStr">
         <is>
-          <t>222.187.77.109</t>
+          <t>111.72.25.205</t>
         </is>
       </c>
       <c r="B1189" s="0" t="inlineStr">
         <is>
-          <t>8888</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="C1189" s="0" t="inlineStr">
         <is>
-          <t>中国  江苏  徐州</t>
+          <t>中国  江西  抚州</t>
         </is>
       </c>
       <c r="D1189" s="0" t="inlineStr">
@@ -27204,7 +27204,7 @@
     <row r="1190">
       <c r="A1190" s="0" t="inlineStr">
         <is>
-          <t>60.169.150.11</t>
+          <t>117.69.63.174</t>
         </is>
       </c>
       <c r="B1190" s="0" t="inlineStr">
@@ -27214,7 +27214,7 @@
       </c>
       <c r="C1190" s="0" t="inlineStr">
         <is>
-          <t>中国  安徽  芜湖</t>
+          <t>中国  安徽  淮南</t>
         </is>
       </c>
       <c r="D1190" s="0" t="inlineStr">
@@ -31598,22 +31598,22 @@
       </c>
     </row>
     <row r="1390">
-      <c r="A1390" t="inlineStr">
+      <c r="A1390" s="0" t="inlineStr">
         <is>
           <t>49.89.103.160</t>
         </is>
       </c>
-      <c r="B1390" t="inlineStr">
-        <is>
-          <t>9999</t>
-        </is>
-      </c>
-      <c r="C1390" t="inlineStr">
+      <c r="B1390" s="0" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="C1390" s="0" t="inlineStr">
         <is>
           <t>中国  江苏  宿迁</t>
         </is>
       </c>
-      <c r="D1390" t="inlineStr">
+      <c r="D1390" s="0" t="inlineStr">
         <is>
           <t>电信</t>
         </is>
